--- a/Migración venezolana.xlsx
+++ b/Migración venezolana.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Ciclo 2025-01\Estadística 2\data investigación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MIGRA CHAMOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06162CA9-B671-40FE-858A-52526BBD038E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BF31BDC-436E-4344-850D-86586E53BA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" xr2:uid="{B8469EEF-8D94-438E-B2C4-172972F826DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B8469EEF-8D94-438E-B2C4-172972F826DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>Pais</t>
   </si>
@@ -81,9 +81,6 @@
     <t>D.G.M.</t>
   </si>
   <si>
-    <t>Stock</t>
-  </si>
-  <si>
     <t>Fecha Fuente</t>
   </si>
   <si>
@@ -115,13 +112,112 @@
   </si>
   <si>
     <t>https://www.r4v.info/es/refugiadosymigrantes</t>
+  </si>
+  <si>
+    <t>EEUU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ACS</t>
+  </si>
+  <si>
+    <t>Sep 2021</t>
+  </si>
+  <si>
+    <t>España</t>
+  </si>
+  <si>
+    <t>INE</t>
+  </si>
+  <si>
+    <t>República Dominicana</t>
+  </si>
+  <si>
+    <t>DGM</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>INM</t>
+  </si>
+  <si>
+    <t>Ago 202</t>
+  </si>
+  <si>
+    <t>Italia</t>
+  </si>
+  <si>
+    <t>UNDESA</t>
+  </si>
+  <si>
+    <t>Panamá</t>
+  </si>
+  <si>
+    <t>Censo de Panamá (INEC)</t>
+  </si>
+  <si>
+    <t>Trinidad y Tobago</t>
+  </si>
+  <si>
+    <t>RMRP</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>DGME</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Canadá</t>
+  </si>
+  <si>
+    <t>Censo de Población</t>
+  </si>
+  <si>
+    <t>Curaçao</t>
+  </si>
+  <si>
+    <t>MYSR</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Otros (Oceania)</t>
+  </si>
+  <si>
+    <t>Francia</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Stock hasta 2018</t>
+  </si>
+  <si>
+    <t>Stock hasta 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	6,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,16 +225,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF404040"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF404040"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -146,13 +261,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE5E5E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,17 +613,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE329312-710C-4AC0-98BF-5951014E29F2}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A2" sqref="A2:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -488,26 +637,29 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>59</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1">
@@ -516,8 +668,11 @@
       <c r="E2">
         <v>2800000</v>
       </c>
+      <c r="F2" s="6">
+        <v>1032016</v>
+      </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -527,7 +682,7 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1">
@@ -535,6 +690,9 @@
       </c>
       <c r="E3">
         <v>1700000</v>
+      </c>
+      <c r="F3" s="6">
+        <v>414000</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -542,9 +700,9 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1">
@@ -553,124 +711,491 @@
       <c r="E4">
         <v>626900</v>
       </c>
+      <c r="F4" s="6">
+        <v>290224</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>45413</v>
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
       </c>
       <c r="E5">
-        <v>532700</v>
+        <v>545200</v>
+      </c>
+      <c r="F5" s="7">
+        <v>144000</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>45352</v>
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D6" s="1">
         <v>45413</v>
       </c>
       <c r="E6">
-        <v>444800</v>
+        <v>532700</v>
+      </c>
+      <c r="F6" s="7">
+        <v>95000</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="C7" s="4">
+        <v>44562</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44713</v>
       </c>
       <c r="E7">
-        <v>165600</v>
+        <v>477400</v>
+      </c>
+      <c r="F7" s="7">
+        <v>208000</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45352</v>
       </c>
       <c r="D8" s="1">
-        <v>45597</v>
+        <v>45413</v>
       </c>
       <c r="E8">
-        <v>41200</v>
+        <v>444800</v>
+      </c>
+      <c r="F8" s="7">
+        <v>94461</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="1">
-        <v>45597</v>
+      <c r="D9" t="s">
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>18700</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>165600</v>
+      </c>
+      <c r="F9" s="7">
+        <v>105756</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
+        <v>35</v>
+      </c>
+      <c r="C10" s="4">
+        <v>45139</v>
       </c>
       <c r="D10" s="1">
         <v>45597</v>
       </c>
       <c r="E10">
+        <v>125500</v>
+      </c>
+      <c r="F10" s="8">
+        <v>8589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45231</v>
+      </c>
+      <c r="E11">
+        <v>106000</v>
+      </c>
+      <c r="F11" s="9">
+        <v>20775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44256</v>
+      </c>
+      <c r="E12">
+        <v>59400</v>
+      </c>
+      <c r="F12" s="6">
+        <v>23582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="4">
+        <v>45047</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45597</v>
+      </c>
+      <c r="E13">
+        <v>58000</v>
+      </c>
+      <c r="F13" s="7">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45597</v>
+      </c>
+      <c r="E14">
+        <v>41200</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="4">
+        <v>45413</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45505</v>
+      </c>
+      <c r="E15">
+        <v>29500</v>
+      </c>
+      <c r="F15" s="7">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="4">
+        <v>45413</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45505</v>
+      </c>
+      <c r="E16">
+        <v>29500</v>
+      </c>
+      <c r="F16" s="7">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D17" s="1">
+        <v>44256</v>
+      </c>
+      <c r="E17">
+        <v>27700</v>
+      </c>
+      <c r="F17" s="7">
+        <v>8892</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="4">
+        <v>44531</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44835</v>
+      </c>
+      <c r="E18">
+        <v>27300</v>
+      </c>
+      <c r="F18" s="11">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45597</v>
+      </c>
+      <c r="E19">
         <v>18700</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="F19" s="11">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>45597</v>
+      </c>
+      <c r="E20">
+        <v>18700</v>
+      </c>
+      <c r="F20" s="11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="4">
+        <v>45261</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45505</v>
+      </c>
+      <c r="E21">
+        <v>11600</v>
+      </c>
+      <c r="F21" s="11">
+        <v>7000</v>
+      </c>
+      <c r="J21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="4">
+        <v>45413</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45505</v>
+      </c>
+      <c r="E22">
+        <v>11500</v>
+      </c>
+      <c r="F22" s="11">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44256</v>
+      </c>
+      <c r="E23">
+        <v>7600</v>
+      </c>
+      <c r="F23" s="10">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D24" s="1">
+        <v>44256</v>
+      </c>
+      <c r="E24">
+        <v>7200</v>
+      </c>
+      <c r="F24" s="11">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B25" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C25" s="4">
         <v>45444</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D25" s="1">
         <v>45597</v>
       </c>
-      <c r="E11">
+      <c r="E25">
         <v>5600</v>
+      </c>
+      <c r="F25" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D26" s="1">
+        <v>44256</v>
+      </c>
+      <c r="E26">
+        <v>245</v>
+      </c>
+      <c r="F26" s="10">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D27" s="1">
+        <v>44256</v>
+      </c>
+      <c r="E27">
+        <v>165</v>
+      </c>
+      <c r="F27" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="5">
+        <v>44013</v>
+      </c>
+      <c r="D28" s="1">
+        <v>44256</v>
+      </c>
+      <c r="E28">
+        <v>103</v>
+      </c>
+      <c r="F28" s="11">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
